--- a/wksp_grnd/res/base.xlsx
+++ b/wksp_grnd/res/base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_grnd\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\monte mina\Formatos protocolos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDB6967-ECB2-4A63-832C-5493D904F444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503237A4-2CB8-4327-8F02-AD71B8566CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Fecha:</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>SNN4008-E</t>
-  </si>
-  <si>
-    <t>SNN4008-E-PAR-01-ELEC-009</t>
   </si>
   <si>
     <t>Correlativo:</t>
@@ -211,9 +208,6 @@
     </r>
   </si>
   <si>
-    <t>OBRA:Nueva Subestación Seccionadora Parinas 500/220 Kv.</t>
-  </si>
-  <si>
     <t>Unión terminal 2/0 (Paleta)</t>
   </si>
   <si>
@@ -244,20 +238,20 @@
     <t>Union terminal 120mm²</t>
   </si>
   <si>
-    <t>✔</t>
-  </si>
-  <si>
-    <t>Revisión: 2</t>
-  </si>
-  <si>
-    <t>Unión Remate 4/0</t>
+    <t>Revisión: 0</t>
+  </si>
+  <si>
+    <t>OBRA: Subestación Monte Mina 220 kV.</t>
+  </si>
+  <si>
+    <t>SNN4008-E-MMI-01-ELEC-0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -722,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -825,29 +819,146 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,12 +988,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,21 +1050,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -990,12 +1083,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,111 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3924,13 +3906,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:AF301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:L20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.109375" style="1" customWidth="1"/>
@@ -3943,7 +3928,7 @@
     <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="1" customWidth="1"/>
     <col min="16" max="16" width="3.44140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="3.33203125" style="1" customWidth="1"/>
     <col min="18" max="19" width="3.5546875" style="1" customWidth="1"/>
@@ -3960,593 +3945,593 @@
     <col min="119" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="6" customHeight="1"/>
-    <row r="2" spans="2:32" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="71" t="s">
+    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="50"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
     </row>
-    <row r="3" spans="2:32" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="68" t="s">
+    <row r="3" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
     </row>
-    <row r="4" spans="2:32" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="56"/>
+    <row r="4" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95"/>
     </row>
-    <row r="5" spans="2:32" ht="42" customHeight="1">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="62" t="s">
+    <row r="5" spans="2:32" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="59" t="s">
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="98"/>
+    </row>
+    <row r="6" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="61"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="119"/>
     </row>
-    <row r="6" spans="2:32" s="3" customFormat="1" ht="28.95" customHeight="1">
-      <c r="B6" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="86"/>
+    <row r="7" spans="2:32" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="83"/>
     </row>
-    <row r="7" spans="2:32" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="B7" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="112"/>
+    <row r="8" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="117"/>
     </row>
-    <row r="8" spans="2:32" s="3" customFormat="1" ht="28.95" customHeight="1">
-      <c r="B8" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="83"/>
+    <row r="9" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
     </row>
-    <row r="9" spans="2:32" s="3" customFormat="1" ht="28.95" customHeight="1">
-      <c r="B9" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="122"/>
+    <row r="10" spans="2:32" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="86"/>
     </row>
-    <row r="10" spans="2:32" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="B10" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="115"/>
-    </row>
-    <row r="11" spans="2:32" s="3" customFormat="1" ht="1.95" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="128"/>
+    <row r="11" spans="2:32" s="3" customFormat="1" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="61"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="123" t="s">
+    <row r="12" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="95" t="s">
+      <c r="S12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="96"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="67"/>
       <c r="X12" s="35"/>
-      <c r="Y12" s="95" t="s">
+      <c r="Y12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="96"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="67"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="2:32" s="3" customFormat="1" ht="1.95" customHeight="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="131"/>
+    <row r="13" spans="2:32" s="3" customFormat="1" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="64"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
+    <row r="14" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="95" t="s">
+      <c r="M14" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="96"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="95" t="s">
+      <c r="S14" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="96"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="67"/>
       <c r="X14" s="35"/>
-      <c r="Y14" s="95" t="s">
+      <c r="Y14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="96"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="67"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="2:32" s="3" customFormat="1" ht="2.4" customHeight="1" thickBot="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="94"/>
+    <row r="15" spans="2:32" s="3" customFormat="1" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="126"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="126"/>
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="126"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="127"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
+    <row r="16" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="129"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="130"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="2:32" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="2:32" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
-      <c r="I17" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
+      <c r="I17" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
       <c r="O17" s="39"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
       <c r="AE17" s="10"/>
     </row>
-    <row r="18" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+    <row r="18" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
-      <c r="C18" s="135" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="57" t="s">
+      <c r="C18" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="57" t="s">
+      <c r="J18" s="41"/>
+      <c r="K18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="41"/>
+      <c r="M18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="57" t="s">
+      <c r="N18" s="41"/>
+      <c r="O18" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="26" t="s">
-        <v>50</v>
       </c>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
@@ -4556,8 +4541,8 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="81"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="48"/>
       <c r="X18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4565,24 +4550,24 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="13"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="81"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="48"/>
       <c r="AE18" s="10"/>
     </row>
-    <row r="19" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+    <row r="19" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="58"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="26"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
@@ -4592,33 +4577,33 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="81"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="48"/>
       <c r="X19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="13"/>
-      <c r="AC19" s="80"/>
-      <c r="AD19" s="81"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="48"/>
       <c r="AE19" s="10"/>
     </row>
-    <row r="20" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="58"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="26"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -4628,33 +4613,33 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="13"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="13"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="81"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="48"/>
       <c r="AE20" s="10"/>
     </row>
-    <row r="21" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="58"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="26"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
@@ -4664,20 +4649,20 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="81"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
       <c r="X21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="13"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="81"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="48"/>
       <c r="AE21" s="10"/>
     </row>
-    <row r="22" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="36"/>
       <c r="D22" s="38"/>
@@ -4700,123 +4685,121 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="81"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="48"/>
       <c r="X22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="13"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="81"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="10"/>
     </row>
-    <row r="23" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="26"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
-      <c r="R23" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="R23" s="7"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="81"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="81"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="48"/>
       <c r="AE23" s="10"/>
     </row>
-    <row r="24" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="110"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="134"/>
+    <row r="24" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="46"/>
     </row>
-    <row r="25" spans="2:32" s="3" customFormat="1" ht="22.95" customHeight="1">
-      <c r="B25" s="104" t="s">
+    <row r="25" spans="2:32" s="3" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="107" t="s">
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107" t="s">
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107" t="s">
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
       <c r="AA25" s="28"/>
       <c r="AB25" s="28"/>
       <c r="AC25" s="28"/>
@@ -4824,38 +4807,36 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B26" s="105">
+    <row r="26" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="72">
         <v>1</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="102" t="s">
+      <c r="C26" s="72"/>
+      <c r="D26" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
       <c r="AA26" s="30"/>
       <c r="AB26" s="30"/>
       <c r="AC26" s="30"/>
@@ -4863,38 +4844,36 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B27" s="105">
+    <row r="27" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="72">
         <v>2</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="102" t="s">
+      <c r="C27" s="72"/>
+      <c r="D27" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
       <c r="AA27" s="30"/>
       <c r="AB27" s="30"/>
       <c r="AC27" s="30"/>
@@ -4902,38 +4881,36 @@
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B28" s="105">
+    <row r="28" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="72">
         <v>3</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="102" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
       <c r="AA28" s="30"/>
       <c r="AB28" s="30"/>
       <c r="AC28" s="30"/>
@@ -4941,38 +4918,36 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B29" s="105">
+    <row r="29" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="72">
         <v>4</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="102" t="s">
+      <c r="C29" s="72"/>
+      <c r="D29" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
       <c r="AA29" s="30"/>
       <c r="AB29" s="30"/>
       <c r="AC29" s="30"/>
@@ -4980,38 +4955,36 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B30" s="105">
+    <row r="30" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="72">
         <v>5</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="102" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
       <c r="AC30" s="30"/>
@@ -5019,38 +4992,36 @@
       <c r="AE30" s="9"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B31" s="105">
+    <row r="31" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="72">
         <v>6</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="102" t="s">
+      <c r="C31" s="72"/>
+      <c r="D31" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
       <c r="AA31" s="30"/>
       <c r="AB31" s="30"/>
       <c r="AC31" s="30"/>
@@ -5058,38 +5029,36 @@
       <c r="AE31" s="9"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B32" s="105">
+    <row r="32" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="72">
         <v>7</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="102" t="s">
+      <c r="C32" s="72"/>
+      <c r="D32" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
       <c r="AA32" s="30"/>
       <c r="AB32" s="30"/>
       <c r="AC32" s="30"/>
@@ -5097,38 +5066,36 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B33" s="105">
+    <row r="33" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="72">
         <v>8</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="102" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
       <c r="AA33" s="30"/>
       <c r="AB33" s="30"/>
       <c r="AC33" s="30"/>
@@ -5136,38 +5103,36 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B34" s="105">
+    <row r="34" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="72">
         <v>9</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="102" t="s">
+      <c r="C34" s="72"/>
+      <c r="D34" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
       <c r="AA34" s="30"/>
       <c r="AB34" s="30"/>
       <c r="AC34" s="30"/>
@@ -5175,38 +5140,36 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B35" s="105">
+    <row r="35" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="72">
         <v>10</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="102" t="s">
+      <c r="C35" s="72"/>
+      <c r="D35" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="102"/>
-      <c r="O35" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
       <c r="AA35" s="30"/>
       <c r="AB35" s="30"/>
       <c r="AC35" s="30"/>
@@ -5214,38 +5177,36 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B36" s="105">
+    <row r="36" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="72">
         <v>11</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="102" t="s">
+      <c r="C36" s="72"/>
+      <c r="D36" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
       <c r="AA36" s="30"/>
       <c r="AB36" s="30"/>
       <c r="AC36" s="30"/>
@@ -5253,38 +5214,36 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
-      <c r="B37" s="105">
+    <row r="37" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="72">
         <v>12</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="102" t="s">
+      <c r="C37" s="72"/>
+      <c r="D37" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
       <c r="AA37" s="30"/>
       <c r="AB37" s="30"/>
       <c r="AC37" s="30"/>
@@ -5292,7 +5251,7 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="2:32" ht="17.25" customHeight="1">
+    <row r="38" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="14"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
@@ -5324,20 +5283,20 @@
       <c r="AD38" s="27"/>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" spans="2:32" ht="17.25" customHeight="1">
+    <row r="39" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
       <c r="O39" s="32"/>
@@ -5358,7 +5317,7 @@
       <c r="AD39" s="27"/>
       <c r="AE39" s="9"/>
     </row>
-    <row r="40" spans="2:32" ht="17.25" customHeight="1">
+    <row r="40" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -5390,7 +5349,7 @@
       <c r="AD40" s="8"/>
       <c r="AE40" s="18"/>
     </row>
-    <row r="41" spans="2:32" ht="17.25" customHeight="1">
+    <row r="41" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -5422,7 +5381,7 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="18"/>
     </row>
-    <row r="42" spans="2:32" ht="17.25" customHeight="1">
+    <row r="42" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
@@ -5454,7 +5413,7 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="18"/>
     </row>
-    <row r="43" spans="2:32" ht="17.25" customHeight="1">
+    <row r="43" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
@@ -5486,7 +5445,7 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="18"/>
     </row>
-    <row r="44" spans="2:32" ht="17.25" customHeight="1">
+    <row r="44" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
@@ -5518,7 +5477,7 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="18"/>
     </row>
-    <row r="45" spans="2:32" ht="17.25" customHeight="1">
+    <row r="45" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
@@ -5550,7 +5509,7 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="18"/>
     </row>
-    <row r="46" spans="2:32" ht="17.25" customHeight="1">
+    <row r="46" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
@@ -5582,7 +5541,7 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="18"/>
     </row>
-    <row r="47" spans="2:32" ht="17.25" customHeight="1">
+    <row r="47" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="14"/>
       <c r="C47" s="31"/>
       <c r="D47" s="32"/>
@@ -5614,48 +5573,48 @@
       <c r="AD47" s="27"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" spans="2:32" s="5" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B48" s="117" t="s">
+    <row r="48" spans="2:32" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="117" t="s">
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-      <c r="U48" s="118"/>
-      <c r="V48" s="118"/>
-      <c r="W48" s="119"/>
-      <c r="X48" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y48" s="118"/>
-      <c r="Z48" s="118"/>
-      <c r="AA48" s="118"/>
-      <c r="AB48" s="118"/>
-      <c r="AC48" s="118"/>
-      <c r="AD48" s="118"/>
-      <c r="AE48" s="119"/>
+      <c r="Y48" s="70"/>
+      <c r="Z48" s="70"/>
+      <c r="AA48" s="70"/>
+      <c r="AB48" s="70"/>
+      <c r="AC48" s="70"/>
+      <c r="AD48" s="70"/>
+      <c r="AE48" s="71"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="2:32" ht="8.25" customHeight="1">
+    <row r="49" spans="2:32" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -5688,25 +5647,25 @@
       <c r="AE49" s="20"/>
       <c r="AF49" s="4"/>
     </row>
-    <row r="50" spans="2:32" ht="18.75" customHeight="1">
+    <row r="50" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
       <c r="J50" s="19" t="s">
         <v>38</v>
       </c>
       <c r="K50" s="34"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="43"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="22"/>
       <c r="P50" s="19" t="s">
         <v>38</v>
       </c>
@@ -5729,27 +5688,27 @@
       <c r="AE50" s="22"/>
       <c r="AF50" s="4"/>
     </row>
-    <row r="51" spans="2:32" ht="24" customHeight="1">
+    <row r="51" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51" s="34"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="45"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q51" s="34"/>
       <c r="R51" s="23"/>
@@ -5759,7 +5718,7 @@
       <c r="V51" s="23"/>
       <c r="W51" s="24"/>
       <c r="X51" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y51" s="34"/>
       <c r="Z51" s="23"/>
@@ -5770,7 +5729,7 @@
       <c r="AE51" s="24"/>
       <c r="AF51" s="4"/>
     </row>
-    <row r="52" spans="2:32" ht="6.75" customHeight="1">
+    <row r="52" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
@@ -5803,7 +5762,7 @@
       <c r="AE52" s="20"/>
       <c r="AF52" s="4"/>
     </row>
-    <row r="53" spans="2:32" ht="18.75" customHeight="1">
+    <row r="53" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="19" t="s">
         <v>39</v>
       </c>
@@ -5818,10 +5777,10 @@
         <v>39</v>
       </c>
       <c r="K53" s="34"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="43"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="22"/>
       <c r="P53" s="19" t="s">
         <v>39</v>
       </c>
@@ -5844,7 +5803,7 @@
       <c r="AE53" s="22"/>
       <c r="AF53" s="4"/>
     </row>
-    <row r="54" spans="2:32" ht="5.25" customHeight="1">
+    <row r="54" spans="2:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
@@ -5877,17 +5836,17 @@
       <c r="AE54" s="20"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" spans="2:32" ht="19.5" customHeight="1">
+    <row r="55" spans="2:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="47"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="25" t="s">
         <v>0</v>
       </c>
@@ -5918,7 +5877,7 @@
       <c r="AE55" s="22"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="2:32" ht="6" customHeight="1">
+    <row r="56" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="25"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -5951,275 +5910,361 @@
       <c r="AE56" s="22"/>
       <c r="AF56" s="4"/>
     </row>
-    <row r="57" spans="2:32" ht="15" customHeight="1"/>
-    <row r="58" spans="2:32" ht="15" customHeight="1"/>
-    <row r="59" spans="2:32" ht="15" customHeight="1"/>
-    <row r="60" spans="2:32" ht="15" customHeight="1"/>
-    <row r="61" spans="2:32" ht="15" customHeight="1"/>
-    <row r="62" spans="2:32" ht="15" customHeight="1"/>
-    <row r="63" spans="2:32" ht="15" customHeight="1"/>
-    <row r="64" spans="2:32" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
-    <row r="75" ht="15" customHeight="1"/>
-    <row r="76" ht="15" customHeight="1"/>
-    <row r="77" ht="15" customHeight="1"/>
-    <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
-    <row r="80" ht="15" customHeight="1"/>
-    <row r="81" ht="15" customHeight="1"/>
-    <row r="82" ht="15" customHeight="1"/>
-    <row r="83" ht="15" customHeight="1"/>
-    <row r="84" ht="15" customHeight="1"/>
-    <row r="85" ht="15" customHeight="1"/>
-    <row r="86" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
-    <row r="88" ht="15" customHeight="1"/>
-    <row r="89" ht="15" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
-    <row r="91" ht="15" customHeight="1"/>
-    <row r="92" ht="15" customHeight="1"/>
-    <row r="93" ht="15" customHeight="1"/>
-    <row r="94" ht="15" customHeight="1"/>
-    <row r="95" ht="15" customHeight="1"/>
-    <row r="96" ht="15" customHeight="1"/>
-    <row r="97" ht="15" customHeight="1"/>
-    <row r="98" ht="15" customHeight="1"/>
-    <row r="99" ht="15" customHeight="1"/>
-    <row r="100" ht="15" customHeight="1"/>
-    <row r="101" ht="15" customHeight="1"/>
-    <row r="102" ht="15" customHeight="1"/>
-    <row r="103" ht="15" customHeight="1"/>
-    <row r="104" ht="15" customHeight="1"/>
-    <row r="105" ht="15" customHeight="1"/>
-    <row r="106" ht="15" customHeight="1"/>
-    <row r="107" ht="15" customHeight="1"/>
-    <row r="108" ht="15" customHeight="1"/>
-    <row r="109" ht="15" customHeight="1"/>
-    <row r="110" ht="15" customHeight="1"/>
-    <row r="111" ht="15" customHeight="1"/>
-    <row r="112" ht="15" customHeight="1"/>
-    <row r="113" ht="15" customHeight="1"/>
-    <row r="114" ht="15" customHeight="1"/>
-    <row r="115" ht="15" customHeight="1"/>
-    <row r="116" ht="15" customHeight="1"/>
-    <row r="117" ht="15" customHeight="1"/>
-    <row r="118" ht="15" customHeight="1"/>
-    <row r="119" ht="15" customHeight="1"/>
-    <row r="120" ht="15" customHeight="1"/>
-    <row r="121" ht="15" customHeight="1"/>
-    <row r="122" ht="15" customHeight="1"/>
-    <row r="123" ht="15" customHeight="1"/>
-    <row r="124" ht="15" customHeight="1"/>
-    <row r="125" ht="15" customHeight="1"/>
-    <row r="126" ht="15" customHeight="1"/>
-    <row r="127" ht="15" customHeight="1"/>
-    <row r="128" ht="15" customHeight="1"/>
-    <row r="129" ht="15" customHeight="1"/>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="131" ht="15" customHeight="1"/>
-    <row r="132" ht="15" customHeight="1"/>
-    <row r="133" ht="15" customHeight="1"/>
-    <row r="134" ht="15" customHeight="1"/>
-    <row r="135" ht="15" customHeight="1"/>
-    <row r="136" ht="15" customHeight="1"/>
-    <row r="137" ht="15" customHeight="1"/>
-    <row r="138" ht="15" customHeight="1"/>
-    <row r="139" ht="15" customHeight="1"/>
-    <row r="140" ht="15" customHeight="1"/>
-    <row r="141" ht="15" customHeight="1"/>
-    <row r="142" ht="15" customHeight="1"/>
-    <row r="143" ht="15" customHeight="1"/>
-    <row r="144" ht="15" customHeight="1"/>
-    <row r="145" ht="15" customHeight="1"/>
-    <row r="146" ht="15" customHeight="1"/>
-    <row r="147" ht="15" customHeight="1"/>
-    <row r="148" ht="15" customHeight="1"/>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="15" customHeight="1"/>
-    <row r="156" ht="15" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="163" ht="15" customHeight="1"/>
-    <row r="164" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
-    <row r="166" ht="15" customHeight="1"/>
-    <row r="167" ht="15" customHeight="1"/>
-    <row r="168" ht="15" customHeight="1"/>
-    <row r="169" ht="15" customHeight="1"/>
-    <row r="170" ht="15" customHeight="1"/>
-    <row r="171" ht="15" customHeight="1"/>
-    <row r="172" ht="15" customHeight="1"/>
-    <row r="173" ht="15" customHeight="1"/>
-    <row r="174" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
-    <row r="176" ht="15" customHeight="1"/>
-    <row r="177" ht="15" customHeight="1"/>
-    <row r="178" ht="15" customHeight="1"/>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="180" ht="15" customHeight="1"/>
-    <row r="181" ht="15" customHeight="1"/>
-    <row r="182" ht="15" customHeight="1"/>
-    <row r="183" ht="15" customHeight="1"/>
-    <row r="184" ht="15" customHeight="1"/>
-    <row r="185" ht="15" customHeight="1"/>
-    <row r="186" ht="15" customHeight="1"/>
-    <row r="187" ht="15" customHeight="1"/>
-    <row r="188" ht="15" customHeight="1"/>
-    <row r="189" ht="15" customHeight="1"/>
-    <row r="190" ht="15" customHeight="1"/>
-    <row r="191" ht="15" customHeight="1"/>
-    <row r="192" ht="15" customHeight="1"/>
-    <row r="193" ht="15" customHeight="1"/>
-    <row r="194" ht="15" customHeight="1"/>
-    <row r="195" ht="15" customHeight="1"/>
-    <row r="196" ht="15" customHeight="1"/>
-    <row r="197" ht="15" customHeight="1"/>
-    <row r="198" ht="15" customHeight="1"/>
-    <row r="199" ht="15" customHeight="1"/>
-    <row r="200" ht="15" customHeight="1"/>
-    <row r="201" ht="15" customHeight="1"/>
-    <row r="202" ht="15" customHeight="1"/>
-    <row r="203" ht="15" customHeight="1"/>
-    <row r="204" ht="15" customHeight="1"/>
-    <row r="205" ht="15" customHeight="1"/>
-    <row r="206" ht="15" customHeight="1"/>
-    <row r="207" ht="15" customHeight="1"/>
-    <row r="208" ht="15" customHeight="1"/>
-    <row r="209" ht="15" customHeight="1"/>
-    <row r="210" ht="15" customHeight="1"/>
-    <row r="211" ht="15" customHeight="1"/>
-    <row r="212" ht="15" customHeight="1"/>
-    <row r="213" ht="15" customHeight="1"/>
-    <row r="214" ht="15" customHeight="1"/>
-    <row r="215" ht="15" customHeight="1"/>
-    <row r="216" ht="15" customHeight="1"/>
-    <row r="217" ht="15" customHeight="1"/>
-    <row r="218" ht="15" customHeight="1"/>
-    <row r="219" ht="15" customHeight="1"/>
-    <row r="220" ht="15" customHeight="1"/>
-    <row r="221" ht="15" customHeight="1"/>
-    <row r="222" ht="15" customHeight="1"/>
-    <row r="223" ht="15" customHeight="1"/>
-    <row r="224" ht="15" customHeight="1"/>
-    <row r="225" ht="15" customHeight="1"/>
-    <row r="226" ht="15" customHeight="1"/>
-    <row r="227" ht="15" customHeight="1"/>
-    <row r="228" ht="15" customHeight="1"/>
-    <row r="229" ht="15" customHeight="1"/>
-    <row r="230" ht="15" customHeight="1"/>
-    <row r="231" ht="15" customHeight="1"/>
-    <row r="232" ht="15" customHeight="1"/>
-    <row r="233" ht="15" customHeight="1"/>
-    <row r="234" ht="15" customHeight="1"/>
-    <row r="235" ht="15" customHeight="1"/>
-    <row r="236" ht="15" customHeight="1"/>
-    <row r="237" ht="15" customHeight="1"/>
-    <row r="238" ht="15" customHeight="1"/>
-    <row r="239" ht="15" customHeight="1"/>
-    <row r="240" ht="15" customHeight="1"/>
-    <row r="241" ht="15" customHeight="1"/>
-    <row r="242" ht="15" customHeight="1"/>
-    <row r="243" ht="15" customHeight="1"/>
-    <row r="244" ht="15" customHeight="1"/>
-    <row r="245" ht="15" customHeight="1"/>
-    <row r="246" ht="15" customHeight="1"/>
-    <row r="247" ht="15" customHeight="1"/>
-    <row r="248" ht="15" customHeight="1"/>
-    <row r="249" ht="15" customHeight="1"/>
-    <row r="250" ht="15" customHeight="1"/>
-    <row r="251" ht="15" customHeight="1"/>
-    <row r="252" ht="15" customHeight="1"/>
-    <row r="253" ht="15" customHeight="1"/>
-    <row r="254" ht="15" customHeight="1"/>
-    <row r="255" ht="15" customHeight="1"/>
-    <row r="256" ht="15" customHeight="1"/>
-    <row r="257" ht="15" customHeight="1"/>
-    <row r="258" ht="15" customHeight="1"/>
-    <row r="259" ht="15" customHeight="1"/>
-    <row r="260" ht="15" customHeight="1"/>
-    <row r="261" ht="15" customHeight="1"/>
-    <row r="262" ht="15" customHeight="1"/>
-    <row r="263" ht="15" customHeight="1"/>
-    <row r="264" ht="15" customHeight="1"/>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
+    <row r="57" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="V23:W23"/>
+  <mergeCells count="156">
+    <mergeCell ref="Z2:AE4"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="J5:Y5"/>
+    <mergeCell ref="J2:Y2"/>
+    <mergeCell ref="J3:Y4"/>
+    <mergeCell ref="B2:I5"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="X8:AE8"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B15:AE15"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="B16:AE16"/>
+    <mergeCell ref="I17:N17"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="Z7:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="B10:AE10"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B11:AE11"/>
-    <mergeCell ref="B13:AE13"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="I9:AE9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="Z7:AE7"/>
-    <mergeCell ref="B10:AE10"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="D29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="D28:N28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="D27:N27"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="D33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="D32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="D35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="O34:Q34"/>
     <mergeCell ref="C39:L39"/>
     <mergeCell ref="B48:I48"/>
     <mergeCell ref="J48:O48"/>
@@ -6237,81 +6282,23 @@
     <mergeCell ref="X37:Z37"/>
     <mergeCell ref="D37:N37"/>
     <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="D35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="D34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="D33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="D32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="D26:N26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="D28:N28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="D27:N27"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="D29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="M7:Y7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B11:AE11"/>
+    <mergeCell ref="B13:AE13"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="I9:AE9"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
+    <mergeCell ref="R17:AD17"/>
     <mergeCell ref="B24:AE24"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:H21"/>
@@ -6323,49 +6310,14 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="B15:AE15"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="B16:AE16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="R17:AD17"/>
-    <mergeCell ref="F7:Y7"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="Z2:AE4"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="J5:Y5"/>
-    <mergeCell ref="J2:Y2"/>
-    <mergeCell ref="J3:Y4"/>
-    <mergeCell ref="B2:I5"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="X8:AE8"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddFooter>&amp;L&amp;7Rev. 2</oddFooter>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/wksp_grnd/res/base.xlsx
+++ b/wksp_grnd/res/base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\monte mina\Formatos protocolos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_grnd\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503237A4-2CB8-4327-8F02-AD71B8566CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59278EFB-1901-4D6C-BF39-B63F0A7E1A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -819,284 +819,284 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3911,11 +3911,11 @@
   </sheetPr>
   <dimension ref="B1:AF301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="Z5" sqref="Z5:AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.109375" style="1" customWidth="1"/>
@@ -3945,591 +3945,591 @@
     <col min="119" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="108" t="s">
+    <row r="1" spans="2:32" ht="6" customHeight="1"/>
+    <row r="2" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="102" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
     </row>
-    <row r="3" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="105" t="s">
+    <row r="3" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="45"/>
     </row>
-    <row r="4" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
+    <row r="4" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
-    <row r="5" spans="2:32" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="99" t="s">
+    <row r="5" spans="2:32" ht="42" customHeight="1">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="96" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="98"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53"/>
     </row>
-    <row r="6" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="124" t="s">
+    <row r="6" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="B6" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="120" t="s">
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="119"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="78"/>
     </row>
-    <row r="7" spans="2:32" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="79" t="s">
+    <row r="7" spans="2:32" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="B7" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="44" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="83"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="101"/>
     </row>
-    <row r="8" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="B8" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="52" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="117"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="75"/>
     </row>
-    <row r="9" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="2:32" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="B9" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="55"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="118"/>
     </row>
-    <row r="10" spans="2:32" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="84" t="s">
+    <row r="10" spans="2:32" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="B10" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="86"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="106"/>
     </row>
-    <row r="11" spans="2:32" s="3" customFormat="1" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="61"/>
+    <row r="11" spans="2:32" s="3" customFormat="1" ht="1.8" customHeight="1">
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="124"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+    <row r="12" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="65" t="s">
+      <c r="S12" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="67"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="88"/>
       <c r="X12" s="35"/>
-      <c r="Y12" s="65" t="s">
+      <c r="Y12" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="67"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="88"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="2:32" s="3" customFormat="1" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="64"/>
+    <row r="13" spans="2:32" s="3" customFormat="1" ht="1.8" customHeight="1">
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="127"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+    <row r="14" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="88"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="65" t="s">
+      <c r="S14" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="67"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="88"/>
       <c r="X14" s="35"/>
-      <c r="Y14" s="65" t="s">
+      <c r="Y14" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="67"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="88"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="2:32" s="3" customFormat="1" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="126"/>
-      <c r="W15" s="126"/>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="127"/>
+    <row r="15" spans="2:32" s="3" customFormat="1" ht="2.4" customHeight="1" thickBot="1">
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="86"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
-      <c r="AB16" s="129"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="130"/>
+    <row r="16" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="91"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="2:32" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B17" s="6"/>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
       <c r="O17" s="39"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
-      <c r="R17" s="43" t="s">
+      <c r="R17" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="129"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="129"/>
       <c r="AE17" s="10"/>
     </row>
-    <row r="18" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
       <c r="B18" s="6"/>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="132" t="s">
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="40" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="40" t="s">
+      <c r="J18" s="50"/>
+      <c r="K18" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="40" t="s">
+      <c r="L18" s="50"/>
+      <c r="M18" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="41"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="26" t="s">
         <v>49</v>
       </c>
@@ -4541,8 +4541,8 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="48"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
       <c r="X18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4550,24 +4550,24 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="13"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="48"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="73"/>
       <c r="AE18" s="10"/>
     </row>
-    <row r="19" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
       <c r="B19" s="6"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
       <c r="O19" s="26"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
@@ -4577,8 +4577,8 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="48"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="73"/>
       <c r="X19" s="7" t="s">
         <v>53</v>
       </c>
@@ -4586,24 +4586,24 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="13"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="48"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="73"/>
       <c r="AE19" s="10"/>
     </row>
-    <row r="20" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="B20" s="6"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="26"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -4613,8 +4613,8 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="13"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="48"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="73"/>
       <c r="X20" s="7" t="s">
         <v>54</v>
       </c>
@@ -4622,24 +4622,24 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="13"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="48"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="73"/>
       <c r="AE20" s="10"/>
     </row>
-    <row r="21" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="26"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
@@ -4649,8 +4649,8 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="73"/>
       <c r="X21" s="7" t="s">
         <v>50</v>
       </c>
@@ -4658,11 +4658,11 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="13"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="48"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="73"/>
       <c r="AE21" s="10"/>
     </row>
-    <row r="22" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="36"/>
       <c r="D22" s="38"/>
@@ -4685,8 +4685,8 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="48"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="73"/>
       <c r="X22" s="7" t="s">
         <v>51</v>
       </c>
@@ -4694,24 +4694,24 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="13"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="48"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="73"/>
       <c r="AE22" s="10"/>
     </row>
-    <row r="23" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="B23" s="6"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="26"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
@@ -4719,8 +4719,8 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="48"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="73"/>
       <c r="X23" s="7" t="s">
         <v>62</v>
       </c>
@@ -4728,78 +4728,78 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="48"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="73"/>
       <c r="AE23" s="10"/>
     </row>
-    <row r="24" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="46"/>
+    <row r="24" spans="2:32" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="99"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="131"/>
     </row>
-    <row r="25" spans="2:32" s="3" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="77" t="s">
+    <row r="25" spans="2:32" s="3" customFormat="1" ht="22.8" customHeight="1">
+      <c r="B25" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="78" t="s">
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78" t="s">
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78" t="s">
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
       <c r="AA25" s="28"/>
       <c r="AB25" s="28"/>
       <c r="AC25" s="28"/>
@@ -4807,36 +4807,36 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72">
+    <row r="26" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B26" s="107">
         <v>1</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="75" t="s">
+      <c r="C26" s="107"/>
+      <c r="D26" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
       <c r="AA26" s="30"/>
       <c r="AB26" s="30"/>
       <c r="AC26" s="30"/>
@@ -4844,36 +4844,36 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="72">
+    <row r="27" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B27" s="107">
         <v>2</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="75" t="s">
+      <c r="C27" s="107"/>
+      <c r="D27" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
       <c r="AA27" s="30"/>
       <c r="AB27" s="30"/>
       <c r="AC27" s="30"/>
@@ -4881,36 +4881,36 @@
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72">
+    <row r="28" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B28" s="107">
         <v>3</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="75" t="s">
+      <c r="C28" s="107"/>
+      <c r="D28" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
       <c r="AA28" s="30"/>
       <c r="AB28" s="30"/>
       <c r="AC28" s="30"/>
@@ -4918,36 +4918,36 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72">
+    <row r="29" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B29" s="107">
         <v>4</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="75" t="s">
+      <c r="C29" s="107"/>
+      <c r="D29" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
       <c r="AA29" s="30"/>
       <c r="AB29" s="30"/>
       <c r="AC29" s="30"/>
@@ -4955,36 +4955,36 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="72">
+    <row r="30" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B30" s="107">
         <v>5</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="75" t="s">
+      <c r="C30" s="107"/>
+      <c r="D30" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
       <c r="AC30" s="30"/>
@@ -4992,36 +4992,36 @@
       <c r="AE30" s="9"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="72">
+    <row r="31" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B31" s="107">
         <v>6</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="75" t="s">
+      <c r="C31" s="107"/>
+      <c r="D31" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
       <c r="AA31" s="30"/>
       <c r="AB31" s="30"/>
       <c r="AC31" s="30"/>
@@ -5029,36 +5029,36 @@
       <c r="AE31" s="9"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72">
+    <row r="32" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B32" s="107">
         <v>7</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="75" t="s">
+      <c r="C32" s="107"/>
+      <c r="D32" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="74"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
       <c r="AA32" s="30"/>
       <c r="AB32" s="30"/>
       <c r="AC32" s="30"/>
@@ -5066,36 +5066,36 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72">
+    <row r="33" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B33" s="107">
         <v>8</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="75" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
       <c r="AA33" s="30"/>
       <c r="AB33" s="30"/>
       <c r="AC33" s="30"/>
@@ -5103,36 +5103,36 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72">
+    <row r="34" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B34" s="107">
         <v>9</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="75" t="s">
+      <c r="C34" s="107"/>
+      <c r="D34" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
       <c r="AA34" s="30"/>
       <c r="AB34" s="30"/>
       <c r="AC34" s="30"/>
@@ -5140,36 +5140,36 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="72">
+    <row r="35" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B35" s="107">
         <v>10</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="75" t="s">
+      <c r="C35" s="107"/>
+      <c r="D35" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
       <c r="AA35" s="30"/>
       <c r="AB35" s="30"/>
       <c r="AC35" s="30"/>
@@ -5177,36 +5177,36 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72">
+    <row r="36" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B36" s="107">
         <v>11</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="75" t="s">
+      <c r="C36" s="107"/>
+      <c r="D36" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="108"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
       <c r="AA36" s="30"/>
       <c r="AB36" s="30"/>
       <c r="AC36" s="30"/>
@@ -5214,36 +5214,36 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="72">
+    <row r="37" spans="2:32" s="3" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B37" s="107">
         <v>12</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="75" t="s">
+      <c r="C37" s="107"/>
+      <c r="D37" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="109"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="94"/>
       <c r="AA37" s="30"/>
       <c r="AB37" s="30"/>
       <c r="AC37" s="30"/>
@@ -5251,7 +5251,7 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:32" ht="17.25" customHeight="1">
       <c r="B38" s="14"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
@@ -5283,20 +5283,20 @@
       <c r="AD38" s="27"/>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:32" ht="17.25" customHeight="1">
       <c r="B39" s="14"/>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
       <c r="O39" s="32"/>
@@ -5317,7 +5317,7 @@
       <c r="AD39" s="27"/>
       <c r="AE39" s="9"/>
     </row>
-    <row r="40" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:32" ht="17.25" customHeight="1">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -5349,7 +5349,7 @@
       <c r="AD40" s="8"/>
       <c r="AE40" s="18"/>
     </row>
-    <row r="41" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:32" ht="17.25" customHeight="1">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -5381,7 +5381,7 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="18"/>
     </row>
-    <row r="42" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:32" ht="17.25" customHeight="1">
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
@@ -5413,7 +5413,7 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="18"/>
     </row>
-    <row r="43" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:32" ht="17.25" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
@@ -5445,7 +5445,7 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="18"/>
     </row>
-    <row r="44" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:32" ht="17.25" customHeight="1">
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
@@ -5477,7 +5477,7 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="18"/>
     </row>
-    <row r="45" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:32" ht="17.25" customHeight="1">
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
@@ -5509,7 +5509,7 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="18"/>
     </row>
-    <row r="46" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" ht="17.25" customHeight="1">
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
@@ -5541,7 +5541,7 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="18"/>
     </row>
-    <row r="47" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:32" ht="17.25" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="31"/>
       <c r="D47" s="32"/>
@@ -5573,48 +5573,48 @@
       <c r="AD47" s="27"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" spans="2:32" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+    <row r="48" spans="2:32" s="5" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B48" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="69" t="s">
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="69" t="s">
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="69" t="s">
+      <c r="Q48" s="112"/>
+      <c r="R48" s="112"/>
+      <c r="S48" s="112"/>
+      <c r="T48" s="112"/>
+      <c r="U48" s="112"/>
+      <c r="V48" s="112"/>
+      <c r="W48" s="113"/>
+      <c r="X48" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="70"/>
-      <c r="AC48" s="70"/>
-      <c r="AD48" s="70"/>
-      <c r="AE48" s="71"/>
+      <c r="Y48" s="112"/>
+      <c r="Z48" s="112"/>
+      <c r="AA48" s="112"/>
+      <c r="AB48" s="112"/>
+      <c r="AC48" s="112"/>
+      <c r="AD48" s="112"/>
+      <c r="AE48" s="113"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="2:32" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:32" ht="8.25" customHeight="1">
       <c r="B49" s="19"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -5647,7 +5647,7 @@
       <c r="AE49" s="20"/>
       <c r="AF49" s="4"/>
     </row>
-    <row r="50" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:32" ht="18.75" customHeight="1">
       <c r="B50" s="19" t="s">
         <v>38</v>
       </c>
@@ -5688,7 +5688,7 @@
       <c r="AE50" s="22"/>
       <c r="AF50" s="4"/>
     </row>
-    <row r="51" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:32" ht="24" customHeight="1">
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
@@ -5729,7 +5729,7 @@
       <c r="AE51" s="24"/>
       <c r="AF51" s="4"/>
     </row>
-    <row r="52" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:32" ht="6.75" customHeight="1">
       <c r="B52" s="19"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
@@ -5762,7 +5762,7 @@
       <c r="AE52" s="20"/>
       <c r="AF52" s="4"/>
     </row>
-    <row r="53" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:32" ht="18.75" customHeight="1">
       <c r="B53" s="19" t="s">
         <v>39</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="AE53" s="22"/>
       <c r="AF53" s="4"/>
     </row>
-    <row r="54" spans="2:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:32" ht="5.25" customHeight="1">
       <c r="B54" s="19"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
@@ -5836,7 +5836,7 @@
       <c r="AE54" s="20"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" spans="2:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:32" ht="19.5" customHeight="1">
       <c r="B55" s="25" t="s">
         <v>0</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="AE55" s="22"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:32" ht="6" customHeight="1">
       <c r="B56" s="25"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -5910,253 +5910,385 @@
       <c r="AE56" s="22"/>
       <c r="AF56" s="4"/>
     </row>
-    <row r="57" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:32" ht="15" customHeight="1"/>
+    <row r="58" spans="2:32" ht="15" customHeight="1"/>
+    <row r="59" spans="2:32" ht="15" customHeight="1"/>
+    <row r="60" spans="2:32" ht="15" customHeight="1"/>
+    <row r="61" spans="2:32" ht="15" customHeight="1"/>
+    <row r="62" spans="2:32" ht="15" customHeight="1"/>
+    <row r="63" spans="2:32" ht="15" customHeight="1"/>
+    <row r="64" spans="2:32" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+    <row r="74" ht="15" customHeight="1"/>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="76" ht="15" customHeight="1"/>
+    <row r="77" ht="15" customHeight="1"/>
+    <row r="78" ht="15" customHeight="1"/>
+    <row r="79" ht="15" customHeight="1"/>
+    <row r="80" ht="15" customHeight="1"/>
+    <row r="81" ht="15" customHeight="1"/>
+    <row r="82" ht="15" customHeight="1"/>
+    <row r="83" ht="15" customHeight="1"/>
+    <row r="84" ht="15" customHeight="1"/>
+    <row r="85" ht="15" customHeight="1"/>
+    <row r="86" ht="15" customHeight="1"/>
+    <row r="87" ht="15" customHeight="1"/>
+    <row r="88" ht="15" customHeight="1"/>
+    <row r="89" ht="15" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="115" ht="15" customHeight="1"/>
+    <row r="116" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="119" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
+    <row r="145" ht="15" customHeight="1"/>
+    <row r="146" ht="15" customHeight="1"/>
+    <row r="147" ht="15" customHeight="1"/>
+    <row r="148" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="167" ht="15" customHeight="1"/>
+    <row r="168" ht="15" customHeight="1"/>
+    <row r="169" ht="15" customHeight="1"/>
+    <row r="170" ht="15" customHeight="1"/>
+    <row r="171" ht="15" customHeight="1"/>
+    <row r="172" ht="15" customHeight="1"/>
+    <row r="173" ht="15" customHeight="1"/>
+    <row r="174" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
+    <row r="176" ht="15" customHeight="1"/>
+    <row r="177" ht="15" customHeight="1"/>
+    <row r="178" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="180" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="1"/>
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="183" ht="15" customHeight="1"/>
+    <row r="184" ht="15" customHeight="1"/>
+    <row r="185" ht="15" customHeight="1"/>
+    <row r="186" ht="15" customHeight="1"/>
+    <row r="187" ht="15" customHeight="1"/>
+    <row r="188" ht="15" customHeight="1"/>
+    <row r="189" ht="15" customHeight="1"/>
+    <row r="190" ht="15" customHeight="1"/>
+    <row r="191" ht="15" customHeight="1"/>
+    <row r="192" ht="15" customHeight="1"/>
+    <row r="193" ht="15" customHeight="1"/>
+    <row r="194" ht="15" customHeight="1"/>
+    <row r="195" ht="15" customHeight="1"/>
+    <row r="196" ht="15" customHeight="1"/>
+    <row r="197" ht="15" customHeight="1"/>
+    <row r="198" ht="15" customHeight="1"/>
+    <row r="199" ht="15" customHeight="1"/>
+    <row r="200" ht="15" customHeight="1"/>
+    <row r="201" ht="15" customHeight="1"/>
+    <row r="202" ht="15" customHeight="1"/>
+    <row r="203" ht="15" customHeight="1"/>
+    <row r="204" ht="15" customHeight="1"/>
+    <row r="205" ht="15" customHeight="1"/>
+    <row r="206" ht="15" customHeight="1"/>
+    <row r="207" ht="15" customHeight="1"/>
+    <row r="208" ht="15" customHeight="1"/>
+    <row r="209" ht="15" customHeight="1"/>
+    <row r="210" ht="15" customHeight="1"/>
+    <row r="211" ht="15" customHeight="1"/>
+    <row r="212" ht="15" customHeight="1"/>
+    <row r="213" ht="15" customHeight="1"/>
+    <row r="214" ht="15" customHeight="1"/>
+    <row r="215" ht="15" customHeight="1"/>
+    <row r="216" ht="15" customHeight="1"/>
+    <row r="217" ht="15" customHeight="1"/>
+    <row r="218" ht="15" customHeight="1"/>
+    <row r="219" ht="15" customHeight="1"/>
+    <row r="220" ht="15" customHeight="1"/>
+    <row r="221" ht="15" customHeight="1"/>
+    <row r="222" ht="15" customHeight="1"/>
+    <row r="223" ht="15" customHeight="1"/>
+    <row r="224" ht="15" customHeight="1"/>
+    <row r="225" ht="15" customHeight="1"/>
+    <row r="226" ht="15" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1"/>
+    <row r="228" ht="15" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1"/>
+    <row r="231" ht="15" customHeight="1"/>
+    <row r="232" ht="15" customHeight="1"/>
+    <row r="233" ht="15" customHeight="1"/>
+    <row r="234" ht="15" customHeight="1"/>
+    <row r="235" ht="15" customHeight="1"/>
+    <row r="236" ht="15" customHeight="1"/>
+    <row r="237" ht="15" customHeight="1"/>
+    <row r="238" ht="15" customHeight="1"/>
+    <row r="239" ht="15" customHeight="1"/>
+    <row r="240" ht="15" customHeight="1"/>
+    <row r="241" ht="15" customHeight="1"/>
+    <row r="242" ht="15" customHeight="1"/>
+    <row r="243" ht="15" customHeight="1"/>
+    <row r="244" ht="15" customHeight="1"/>
+    <row r="245" ht="15" customHeight="1"/>
+    <row r="246" ht="15" customHeight="1"/>
+    <row r="247" ht="15" customHeight="1"/>
+    <row r="248" ht="15" customHeight="1"/>
+    <row r="249" ht="15" customHeight="1"/>
+    <row r="250" ht="15" customHeight="1"/>
+    <row r="251" ht="15" customHeight="1"/>
+    <row r="252" ht="15" customHeight="1"/>
+    <row r="253" ht="15" customHeight="1"/>
+    <row r="254" ht="15" customHeight="1"/>
+    <row r="255" ht="15" customHeight="1"/>
+    <row r="256" ht="15" customHeight="1"/>
+    <row r="257" ht="15" customHeight="1"/>
+    <row r="258" ht="15" customHeight="1"/>
+    <row r="259" ht="15" customHeight="1"/>
+    <row r="260" ht="15" customHeight="1"/>
+    <row r="261" ht="15" customHeight="1"/>
+    <row r="262" ht="15" customHeight="1"/>
+    <row r="263" ht="15" customHeight="1"/>
+    <row r="264" ht="15" customHeight="1"/>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="R17:AD17"/>
+    <mergeCell ref="B24:AE24"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="M7:Y7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B11:AE11"/>
+    <mergeCell ref="B13:AE13"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="I9:AE9"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="P48:W48"/>
+    <mergeCell ref="X48:AE48"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="D36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="D37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="D35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="D33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="D32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="D29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="D28:N28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="D27:N27"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="Z7:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="B10:AE10"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V23:W23"/>
     <mergeCell ref="Z2:AE4"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
@@ -6181,142 +6313,10 @@
     <mergeCell ref="B16:AE16"/>
     <mergeCell ref="I17:N17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="D26:N26"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="Z7:AE7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="B10:AE10"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="D29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="D25:N25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="D28:N28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="D27:N27"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="D33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="D32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="D35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="D34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="P48:W48"/>
-    <mergeCell ref="X48:AE48"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="D36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="D37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="M7:Y7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B11:AE11"/>
-    <mergeCell ref="B13:AE13"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="I9:AE9"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="R17:AD17"/>
-    <mergeCell ref="B24:AE24"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
